--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K454"/>
+  <dimension ref="A1:K455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16325,6 +16325,41 @@
         <v>2.775</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="I455" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="J455" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="K455" t="n">
+        <v>2.782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K455"/>
+  <dimension ref="A1:K457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16360,6 +16360,76 @@
         <v>2.782</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>44619</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="J456" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="K456" t="n">
+        <v>2.809</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="H457" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="I457" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J457" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="K457" t="n">
+        <v>2.819</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K457"/>
+  <dimension ref="A1:K458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16430,6 +16430,41 @@
         <v>2.819</v>
       </c>
     </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="I458" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="J458" t="n">
+        <v>1.873</v>
+      </c>
+      <c r="K458" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K458"/>
+  <dimension ref="A1:K459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16465,6 +16465,41 @@
         <v>2.77</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="I459" t="n">
+        <v>1.227</v>
+      </c>
+      <c r="J459" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="K459" t="n">
+        <v>2.796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K459"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16500,6 +16500,41 @@
         <v>2.796</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="J460" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K460" t="n">
+        <v>2.827</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K460"/>
+  <dimension ref="A1:K462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16535,6 +16535,76 @@
         <v>2.827</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="J461" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K461" t="n">
+        <v>2.822</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="I462" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J462" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K462" t="n">
+        <v>2.881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K462"/>
+  <dimension ref="A1:K463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16605,6 +16605,41 @@
         <v>2.881</v>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="I463" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="J463" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="K463" t="n">
+        <v>2.901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K463"/>
+  <dimension ref="A1:K464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16640,6 +16640,41 @@
         <v>2.901</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="I464" t="n">
+        <v>1.276</v>
+      </c>
+      <c r="J464" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="K464" t="n">
+        <v>2.888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K464"/>
+  <dimension ref="A1:K465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16675,6 +16675,41 @@
         <v>2.888</v>
       </c>
     </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="D465" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="H465" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="I465" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="J465" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="K465" t="n">
+        <v>2.878</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K465"/>
+  <dimension ref="A1:K467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16710,6 +16710,76 @@
         <v>2.878</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D466" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1.149</v>
+      </c>
+      <c r="I466" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="J466" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="K466" t="n">
+        <v>2.929</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-0.083</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="D467" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G467" t="n">
+        <v>1</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1.205</v>
+      </c>
+      <c r="I467" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="J467" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="K467" t="n">
+        <v>2.964</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K467"/>
+  <dimension ref="A1:K468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16780,6 +16780,41 @@
         <v>2.964</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I468" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="J468" t="n">
+        <v>2.076</v>
+      </c>
+      <c r="K468" t="n">
+        <v>2.966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K468"/>
+  <dimension ref="A1:K469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16815,6 +16815,41 @@
         <v>2.966</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="I469" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="J469" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="K469" t="n">
+        <v>3.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -16823,7 +16823,7 @@
         <v>0.001</v>
       </c>
       <c r="C469" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.044</v>
       </c>
       <c r="D469" t="n">
         <v>0.116</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K469"/>
+  <dimension ref="A1:K471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16850,6 +16850,76 @@
         <v>3.003</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1.243</v>
+      </c>
+      <c r="I470" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="J470" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="K470" t="n">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G471" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="I471" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="J471" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="K471" t="n">
+        <v>3.029</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K471"/>
+  <dimension ref="A1:K472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16920,6 +16920,41 @@
         <v>3.029</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="G472" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="I472" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="J472" t="n">
+        <v>2.233</v>
+      </c>
+      <c r="K472" t="n">
+        <v>3.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K472"/>
+  <dimension ref="A1:K473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16955,6 +16955,41 @@
         <v>3.095</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="H473" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="I473" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="K473" t="n">
+        <v>3.063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K473"/>
+  <dimension ref="A1:K474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16990,6 +16990,41 @@
         <v>3.063</v>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="I474" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="K474" t="n">
+        <v>3.091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -17001,7 +17001,7 @@
         <v>0.181</v>
       </c>
       <c r="D474" t="n">
-        <v>0.235</v>
+        <v>0.198</v>
       </c>
       <c r="E474" t="n">
         <v>0.373</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K474"/>
+  <dimension ref="A1:K476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17025,6 +17025,76 @@
         <v>3.091</v>
       </c>
     </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I475" t="n">
+        <v>1.877</v>
+      </c>
+      <c r="J475" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="K475" t="n">
+        <v>3.174</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G476" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="I476" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="K476" t="n">
+        <v>3.139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K476"/>
+  <dimension ref="A1:K477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17095,6 +17095,41 @@
         <v>3.139</v>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="I477" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="J477" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K477" t="n">
+        <v>3.111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K477"/>
+  <dimension ref="A1:K478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17130,6 +17130,41 @@
         <v>3.111</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="G478" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="I478" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="K478" t="n">
+        <v>3.052</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K478"/>
+  <dimension ref="A1:K479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17165,6 +17165,41 @@
         <v>3.052</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G479" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="I479" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="K479" t="n">
+        <v>2.974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K479"/>
+  <dimension ref="A1:K480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17200,6 +17200,41 @@
         <v>2.974</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="I480" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2.174</v>
+      </c>
+      <c r="K480" t="n">
+        <v>2.961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K480"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17235,6 +17235,41 @@
         <v>2.961</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="D481" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="G481" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="I481" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J481" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="K481" t="n">
+        <v>2.984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17270,6 +17270,41 @@
         <v>2.984</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="I482" t="n">
+        <v>1.963</v>
+      </c>
+      <c r="J482" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="K482" t="n">
+        <v>3.083</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K482"/>
+  <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17305,6 +17305,41 @@
         <v>3.083</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="I483" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="K483" t="n">
+        <v>3.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K483"/>
+  <dimension ref="A1:K484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17340,6 +17340,41 @@
         <v>3.076</v>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.535</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I484" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="K484" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -17348,13 +17348,13 @@
         <v>-0.535</v>
       </c>
       <c r="C484" t="n">
-        <v>0.137</v>
+        <v>0.115</v>
       </c>
       <c r="D484" t="n">
         <v>0.402</v>
       </c>
       <c r="E484" t="n">
-        <v>0.637</v>
+        <v>0.645</v>
       </c>
       <c r="F484" t="n">
         <v>0.828</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K484"/>
+  <dimension ref="A1:K486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17375,6 +17375,76 @@
         <v>3.08</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-0.5679999999999999</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K485" t="n">
+        <v>3.082</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="D486" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="K486" t="n">
+        <v>3.077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K486"/>
+  <dimension ref="A1:K487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17445,6 +17445,41 @@
         <v>3.077</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1.651</v>
+      </c>
+      <c r="I487" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="J487" t="n">
+        <v>2.443</v>
+      </c>
+      <c r="K487" t="n">
+        <v>3.096</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K487"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17480,6 +17480,41 @@
         <v>3.096</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1.623</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J488" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="K488" t="n">
+        <v>3.073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17515,6 +17515,41 @@
         <v>3.073</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="D489" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G489" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="I489" t="n">
+        <v>1.893</v>
+      </c>
+      <c r="J489" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="K489" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K489"/>
+  <dimension ref="A1:K490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17550,6 +17550,41 @@
         <v>3.07</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-0.131</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="G490" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="I490" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J490" t="n">
+        <v>2.401</v>
+      </c>
+      <c r="K490" t="n">
+        <v>3.066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K490"/>
+  <dimension ref="A1:K491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17585,6 +17585,41 @@
         <v>3.066</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="G491" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="J491" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K491" t="n">
+        <v>3.073</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K491"/>
+  <dimension ref="A1:K492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17620,6 +17620,41 @@
         <v>3.073</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="G492" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="I492" t="n">
+        <v>1.843</v>
+      </c>
+      <c r="J492" t="n">
+        <v>2.379</v>
+      </c>
+      <c r="K492" t="n">
+        <v>3.056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K492"/>
+  <dimension ref="A1:K494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17655,6 +17655,76 @@
         <v>3.056</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1.643</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="J493" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="K493" t="n">
+        <v>3.079</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="I494" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="J494" t="n">
+        <v>2.438</v>
+      </c>
+      <c r="K494" t="n">
+        <v>3.118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17725,6 +17725,41 @@
         <v>3.118</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G495" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="I495" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="J495" t="n">
+        <v>2.409</v>
+      </c>
+      <c r="K495" t="n">
+        <v>3.079</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K495"/>
+  <dimension ref="A1:K497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17760,6 +17760,76 @@
         <v>3.079</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="H496" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="J496" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="K496" t="n">
+        <v>3.155</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.314</v>
+      </c>
+      <c r="C497" t="n">
+        <v>-0.193</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.052</v>
+      </c>
+      <c r="J497" t="n">
+        <v>2.591</v>
+      </c>
+      <c r="K497" t="n">
+        <v>3.263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K497"/>
+  <dimension ref="A1:K498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17830,6 +17830,41 @@
         <v>3.263</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-0.455</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="G498" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1.777</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J498" t="n">
+        <v>2.574</v>
+      </c>
+      <c r="K498" t="n">
+        <v>3.259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K498"/>
+  <dimension ref="A1:K499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17865,6 +17865,41 @@
         <v>3.259</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="G499" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="I499" t="n">
+        <v>1.987</v>
+      </c>
+      <c r="J499" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="K499" t="n">
+        <v>3.252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K499"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17900,6 +17900,41 @@
         <v>3.252</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.228</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="F500" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1.573</v>
+      </c>
+      <c r="H500" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="J500" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="K500" t="n">
+        <v>3.241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -17905,7 +17905,7 @@
         <v>44693</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.228</v>
+        <v>-0.303</v>
       </c>
       <c r="C500" t="n">
         <v>0.046</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K500"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17935,6 +17935,41 @@
         <v>3.241</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.249</v>
+      </c>
+      <c r="C501" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="H501" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I501" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="J501" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="K501" t="n">
+        <v>3.254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:K502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17970,6 +17970,41 @@
         <v>3.254</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="C502" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G502" t="n">
+        <v>1.569</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="I502" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="J502" t="n">
+        <v>2.614</v>
+      </c>
+      <c r="K502" t="n">
+        <v>3.282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K502"/>
+  <dimension ref="A1:K503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18005,6 +18005,41 @@
         <v>3.282</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C503" t="n">
+        <v>-0.096</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G503" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="I503" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="J503" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="K503" t="n">
+        <v>3.261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K503"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18040,6 +18040,41 @@
         <v>3.261</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="G504" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="I504" t="n">
+        <v>1.961</v>
+      </c>
+      <c r="J504" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="K504" t="n">
+        <v>3.237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18075,6 +18075,76 @@
         <v>3.237</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="J505" t="n">
+        <v>2.527</v>
+      </c>
+      <c r="K505" t="n">
+        <v>3.227</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="G506" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="H506" t="n">
+        <v>1.942</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="J506" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="K506" t="n">
+        <v>3.284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K506"/>
+  <dimension ref="A1:K507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18145,6 +18145,41 @@
         <v>3.284</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G507" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="H507" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="J507" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="K507" t="n">
+        <v>3.316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K507"/>
+  <dimension ref="A1:K508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18180,6 +18180,41 @@
         <v>3.316</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H508" t="n">
+        <v>1.942</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="J508" t="n">
+        <v>2.561</v>
+      </c>
+      <c r="K508" t="n">
+        <v>3.281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K508"/>
+  <dimension ref="A1:K509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18215,6 +18215,41 @@
         <v>3.281</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1</v>
+      </c>
+      <c r="G509" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="I509" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="J509" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="K509" t="n">
+        <v>3.257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K509"/>
+  <dimension ref="A1:K511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18250,6 +18250,76 @@
         <v>3.257</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="I510" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="J510" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="K510" t="n">
+        <v>3.237</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G511" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="H511" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="J511" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="K511" t="n">
+        <v>3.269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K511"/>
+  <dimension ref="A1:K512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18320,6 +18320,41 @@
         <v>3.269</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="H512" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="I512" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J512" t="n">
+        <v>2.603</v>
+      </c>
+      <c r="K512" t="n">
+        <v>3.332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K512"/>
+  <dimension ref="A1:K514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18355,6 +18355,76 @@
         <v>3.332</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="G513" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="H513" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="I513" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J513" t="n">
+        <v>2.678</v>
+      </c>
+      <c r="K513" t="n">
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="H514" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="J514" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K514" t="n">
+        <v>3.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K514"/>
+  <dimension ref="A1:K515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18425,6 +18425,41 @@
         <v>3.445</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="G515" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="H515" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2.429</v>
+      </c>
+      <c r="J515" t="n">
+        <v>2.838</v>
+      </c>
+      <c r="K515" t="n">
+        <v>3.529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K515"/>
+  <dimension ref="A1:K516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18460,6 +18460,41 @@
         <v>3.529</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="G516" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="H516" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="J516" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="K516" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K516"/>
+  <dimension ref="A1:K517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18495,6 +18495,41 @@
         <v>3.58</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="E517" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="F517" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="H517" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="I517" t="n">
+        <v>3.044</v>
+      </c>
+      <c r="J517" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="K517" t="n">
+        <v>3.899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K517"/>
+  <dimension ref="A1:K519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18530,6 +18530,76 @@
         <v>3.899</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-0.273</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="E518" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="H518" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="I518" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="J518" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="K518" t="n">
+        <v>3.897</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E519" t="n">
+        <v>1.232</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2.574</v>
+      </c>
+      <c r="H519" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I519" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="J519" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K519" t="n">
+        <v>3.898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K519"/>
+  <dimension ref="A1:K521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18600,6 +18600,76 @@
         <v>3.898</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.342</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="E520" t="n">
+        <v>1.303</v>
+      </c>
+      <c r="F520" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="H520" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="J520" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="K520" t="n">
+        <v>3.837</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="E521" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="H521" t="n">
+        <v>2.642</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="J521" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K521" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K521"/>
+  <dimension ref="A1:K522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18670,6 +18670,41 @@
         <v>3.76</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="E522" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="H522" t="n">
+        <v>2.408</v>
+      </c>
+      <c r="I522" t="n">
+        <v>2.648</v>
+      </c>
+      <c r="J522" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="K522" t="n">
+        <v>3.685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K522"/>
+  <dimension ref="A1:K523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18705,6 +18705,41 @@
         <v>3.685</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="E523" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="F523" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="H523" t="n">
+        <v>2.214</v>
+      </c>
+      <c r="I523" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="J523" t="n">
+        <v>2.791</v>
+      </c>
+      <c r="K523" t="n">
+        <v>3.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -18722,7 +18722,7 @@
         <v>1.289</v>
       </c>
       <c r="F523" t="n">
-        <v>1.482</v>
+        <v>1.466</v>
       </c>
       <c r="G523" t="n">
         <v>2.072</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K523"/>
+  <dimension ref="A1:K525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18740,6 +18740,76 @@
         <v>3.575</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="E524" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="F524" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="H524" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="I524" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J524" t="n">
+        <v>2.842</v>
+      </c>
+      <c r="K524" t="n">
+        <v>3.579</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="E525" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="H525" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="I525" t="n">
+        <v>2.447</v>
+      </c>
+      <c r="J525" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K525" t="n">
+        <v>3.626</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K525"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18810,6 +18810,41 @@
         <v>3.626</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="H526" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="J526" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="K526" t="n">
+        <v>3.613</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K526"/>
+  <dimension ref="A1:K527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18845,6 +18845,41 @@
         <v>3.613</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.135</v>
+      </c>
+      <c r="E527" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="F527" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="H527" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="J527" t="n">
+        <v>2.805</v>
+      </c>
+      <c r="K527" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K527"/>
+  <dimension ref="A1:K528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18880,6 +18880,41 @@
         <v>3.56</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G528" t="n">
+        <v>1.957</v>
+      </c>
+      <c r="H528" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="J528" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K528" t="n">
+        <v>3.501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K528"/>
+  <dimension ref="A1:K530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18915,6 +18915,76 @@
         <v>3.501</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="E529" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="F529" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G529" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="H529" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I529" t="n">
+        <v>2.292</v>
+      </c>
+      <c r="J529" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="K529" t="n">
+        <v>3.501</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="F530" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="H530" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="I530" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="J530" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="K530" t="n">
+        <v>3.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K530"/>
+  <dimension ref="A1:K531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18985,6 +18985,41 @@
         <v>3.445</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="F531" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="G531" t="n">
+        <v>1.944</v>
+      </c>
+      <c r="H531" t="n">
+        <v>2.134</v>
+      </c>
+      <c r="I531" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="J531" t="n">
+        <v>2.582</v>
+      </c>
+      <c r="K531" t="n">
+        <v>3.433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K531"/>
+  <dimension ref="A1:K532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19020,6 +19020,41 @@
         <v>3.433</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="G532" t="n">
+        <v>1.941</v>
+      </c>
+      <c r="H532" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="I532" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="J532" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="K532" t="n">
+        <v>3.396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K532"/>
+  <dimension ref="A1:K533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19055,6 +19055,41 @@
         <v>3.396</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1.686</v>
+      </c>
+      <c r="G533" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="H533" t="n">
+        <v>2.135</v>
+      </c>
+      <c r="I533" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="J533" t="n">
+        <v>2.654</v>
+      </c>
+      <c r="K533" t="n">
+        <v>3.428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K533"/>
+  <dimension ref="A1:K535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19090,6 +19090,76 @@
         <v>3.428</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="G534" t="n">
+        <v>1.987</v>
+      </c>
+      <c r="H534" t="n">
+        <v>2.214</v>
+      </c>
+      <c r="I534" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="J534" t="n">
+        <v>2.791</v>
+      </c>
+      <c r="K534" t="n">
+        <v>3.428</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="H535" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="I535" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="J535" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="K535" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K535"/>
+  <dimension ref="A1:K536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19160,6 +19160,41 @@
         <v>3.48</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="H536" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I536" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="J536" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K536" t="n">
+        <v>3.402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K536"/>
+  <dimension ref="A1:K537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19195,6 +19195,41 @@
         <v>3.402</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E537" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="H537" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2.405</v>
+      </c>
+      <c r="J537" t="n">
+        <v>2.651</v>
+      </c>
+      <c r="K537" t="n">
+        <v>3.392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K537"/>
+  <dimension ref="A1:K538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19230,6 +19230,41 @@
         <v>3.392</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E538" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="H538" t="n">
+        <v>2.303</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="J538" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="K538" t="n">
+        <v>3.372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K538"/>
+  <dimension ref="A1:K540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19265,6 +19265,76 @@
         <v>3.372</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H539" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="J539" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="K539" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1.869</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="H540" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="I540" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J540" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="K540" t="n">
+        <v>3.357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K540"/>
+  <dimension ref="A1:K542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19335,6 +19335,76 @@
         <v>3.357</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1.852</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H541" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2.355</v>
+      </c>
+      <c r="J541" t="n">
+        <v>2.619</v>
+      </c>
+      <c r="K541" t="n">
+        <v>3.365</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1.367</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="H542" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="I542" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="J542" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="K542" t="n">
+        <v>3.378</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K542"/>
+  <dimension ref="A1:K543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19405,6 +19405,41 @@
         <v>3.378</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="E543" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1.863</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="H543" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="I543" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="J543" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="K543" t="n">
+        <v>3.366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K543"/>
+  <dimension ref="A1:K544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19440,6 +19440,41 @@
         <v>3.366</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="E544" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="H544" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="I544" t="n">
+        <v>2.296</v>
+      </c>
+      <c r="J544" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="K544" t="n">
+        <v>3.322</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K544"/>
+  <dimension ref="A1:K545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19475,6 +19475,41 @@
         <v>3.322</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="E545" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2.058</v>
+      </c>
+      <c r="H545" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="I545" t="n">
+        <v>2.284</v>
+      </c>
+      <c r="J545" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="K545" t="n">
+        <v>3.316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K545"/>
+  <dimension ref="A1:K546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19510,6 +19510,41 @@
         <v>3.316</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="H546" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="J546" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="K546" t="n">
+        <v>3.314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K546"/>
+  <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19545,6 +19545,41 @@
         <v>3.314</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="E547" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H547" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="J547" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="K547" t="n">
+        <v>3.287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K547"/>
+  <dimension ref="A1:K549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19580,6 +19580,76 @@
         <v>3.287</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="E548" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1.964</v>
+      </c>
+      <c r="H548" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2.183</v>
+      </c>
+      <c r="J548" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="K548" t="n">
+        <v>3.269</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="F549" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="G549" t="n">
+        <v>1.934</v>
+      </c>
+      <c r="H549" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="J549" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K549" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K549"/>
+  <dimension ref="A1:K550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19650,6 +19650,41 @@
         <v>3.29</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="E550" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1.983</v>
+      </c>
+      <c r="H550" t="n">
+        <v>2.009</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="J550" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K550" t="n">
+        <v>3.307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K550"/>
+  <dimension ref="A1:K551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19685,6 +19685,41 @@
         <v>3.307</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="E551" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2.019</v>
+      </c>
+      <c r="H551" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="J551" t="n">
+        <v>2.513</v>
+      </c>
+      <c r="K551" t="n">
+        <v>3.381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K551"/>
+  <dimension ref="A1:K552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19720,6 +19720,41 @@
         <v>3.381</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="F552" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="H552" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="J552" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="K552" t="n">
+        <v>3.335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K552"/>
+  <dimension ref="A1:K554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19755,6 +19755,76 @@
         <v>3.335</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1.189</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E553" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="F553" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="H553" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="J553" t="n">
+        <v>2.481</v>
+      </c>
+      <c r="K553" t="n">
+        <v>3.329</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="E554" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2.053</v>
+      </c>
+      <c r="H554" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2.284</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="K554" t="n">
+        <v>3.348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K554"/>
+  <dimension ref="A1:K555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19825,6 +19825,41 @@
         <v>3.348</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="E555" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="H555" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="J555" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K555" t="n">
+        <v>3.315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K555"/>
+  <dimension ref="A1:K556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19860,6 +19860,41 @@
         <v>3.315</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1.195</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="E556" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="H556" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="J556" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="K556" t="n">
+        <v>3.278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K556"/>
+  <dimension ref="A1:K558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19895,6 +19895,76 @@
         <v>3.278</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="E557" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="H557" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="J557" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="K557" t="n">
+        <v>3.286</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="E558" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="F558" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="H558" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="J558" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="K558" t="n">
+        <v>3.274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K558"/>
+  <dimension ref="A1:K559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19965,6 +19965,41 @@
         <v>3.274</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.454</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="H559" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2.369</v>
+      </c>
+      <c r="J559" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="K559" t="n">
+        <v>3.346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K559"/>
+  <dimension ref="A1:K560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20000,6 +20000,41 @@
         <v>3.346</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="E560" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1.977</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="H560" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2.477</v>
+      </c>
+      <c r="J560" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="K560" t="n">
+        <v>3.385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K560"/>
+  <dimension ref="A1:K561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20035,6 +20035,41 @@
         <v>3.385</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1.539</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E561" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="F561" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H561" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="J561" t="n">
+        <v>2.491</v>
+      </c>
+      <c r="K561" t="n">
+        <v>3.347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K561"/>
+  <dimension ref="A1:K563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20070,6 +20070,76 @@
         <v>3.347</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="E562" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="F562" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2.287</v>
+      </c>
+      <c r="H562" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="J562" t="n">
+        <v>2.619</v>
+      </c>
+      <c r="K562" t="n">
+        <v>3.416</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B563" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="F563" t="n">
+        <v>2.117</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="H563" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="J563" t="n">
+        <v>2.664</v>
+      </c>
+      <c r="K563" t="n">
+        <v>3.407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K563"/>
+  <dimension ref="A1:K564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20140,6 +20140,41 @@
         <v>3.407</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B564" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="E564" t="n">
+        <v>1.951</v>
+      </c>
+      <c r="F564" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="H564" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="J564" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="K564" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K564"/>
+  <dimension ref="A1:K565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20175,6 +20175,41 @@
         <v>3.42</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1.628</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E565" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="F565" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="H565" t="n">
+        <v>2.626</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2.732</v>
+      </c>
+      <c r="J565" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="K565" t="n">
+        <v>3.474</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K565"/>
+  <dimension ref="A1:K566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20210,6 +20210,41 @@
         <v>3.474</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1.717</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F566" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H566" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J566" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="K566" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K566"/>
+  <dimension ref="A1:K568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20245,6 +20245,76 @@
         <v>3.49</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E567" t="n">
+        <v>1.998</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="H567" t="n">
+        <v>2.642</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2.746</v>
+      </c>
+      <c r="J567" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K567" t="n">
+        <v>3.483</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B568" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="F568" t="n">
+        <v>2.286</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2.566</v>
+      </c>
+      <c r="H568" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="J568" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="K568" t="n">
+        <v>3.503</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K568"/>
+  <dimension ref="A1:K569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20315,6 +20315,41 @@
         <v>3.503</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1.743</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="H569" t="n">
+        <v>2.674</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="J569" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="K569" t="n">
+        <v>3.491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K569"/>
+  <dimension ref="A1:K570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20350,6 +20350,41 @@
         <v>3.491</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D570" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2.294</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="H570" t="n">
+        <v>2.697</v>
+      </c>
+      <c r="I570" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J570" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K570" t="n">
+        <v>3.546</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K570"/>
+  <dimension ref="A1:K571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20385,6 +20385,41 @@
         <v>3.546</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="D571" t="n">
+        <v>2.134</v>
+      </c>
+      <c r="E571" t="n">
+        <v>2.205</v>
+      </c>
+      <c r="F571" t="n">
+        <v>2.343</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="H571" t="n">
+        <v>2.776</v>
+      </c>
+      <c r="I571" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="J571" t="n">
+        <v>2.967</v>
+      </c>
+      <c r="K571" t="n">
+        <v>3.579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -20402,7 +20402,7 @@
         <v>2.205</v>
       </c>
       <c r="F571" t="n">
-        <v>2.343</v>
+        <v>2.37</v>
       </c>
       <c r="G571" t="n">
         <v>2.641</v>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K571"/>
+  <dimension ref="A1:K573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20420,6 +20420,76 @@
         <v>3.579</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="D572" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="E572" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="F572" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="H572" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="J572" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K572" t="n">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="D573" t="n">
+        <v>2.222</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="F573" t="n">
+        <v>2.433</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="H573" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I573" t="n">
+        <v>2.905</v>
+      </c>
+      <c r="J573" t="n">
+        <v>2.954</v>
+      </c>
+      <c r="K573" t="n">
+        <v>3.571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K573"/>
+  <dimension ref="A1:K574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20490,6 +20490,41 @@
         <v>3.571</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="D574" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.282</v>
+      </c>
+      <c r="F574" t="n">
+        <v>2.575</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2.763</v>
+      </c>
+      <c r="H574" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I574" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J574" t="n">
+        <v>3.033</v>
+      </c>
+      <c r="K574" t="n">
+        <v>3.621</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K574"/>
+  <dimension ref="A1:K576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20525,6 +20525,76 @@
         <v>3.621</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="D575" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="E575" t="n">
+        <v>2.489</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2.739</v>
+      </c>
+      <c r="H575" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="I575" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J575" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="K575" t="n">
+        <v>3.592</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="D576" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="H576" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="I576" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="J576" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="K576" t="n">
+        <v>3.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K576"/>
+  <dimension ref="A1:K579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20595,6 +20595,111 @@
         <v>3.588</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1.954</v>
+      </c>
+      <c r="D577" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="F577" t="n">
+        <v>2.773</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2.825</v>
+      </c>
+      <c r="H577" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="I577" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="J577" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K577" t="n">
+        <v>3.598</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B578" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="D578" t="n">
+        <v>2.193</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2.478</v>
+      </c>
+      <c r="F578" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="H578" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="J578" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="K578" t="n">
+        <v>3.602</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B579" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D579" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E579" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="F579" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="H579" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="I579" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="J579" t="n">
+        <v>3.068</v>
+      </c>
+      <c r="K579" t="n">
+        <v>3.666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Israel.xlsx
+++ b/Bonds_Israel.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K579"/>
+  <dimension ref="A1:K580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20700,6 +20700,41 @@
         <v>3.666</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1.421</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1.755</v>
+      </c>
+      <c r="D580" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E580" t="n">
+        <v>2.519</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="H580" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="I580" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="J580" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="K580" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
